--- a/ResultadoEleicoesDistritos/PORTO_PAREDES.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_PAREDES.xlsx
@@ -597,64 +597,64 @@
         <v>22601</v>
       </c>
       <c r="H2" t="n">
-        <v>857</v>
+        <v>797</v>
       </c>
       <c r="I2" t="n">
-        <v>2241</v>
+        <v>2216</v>
       </c>
       <c r="J2" t="n">
-        <v>9342</v>
+        <v>9243</v>
       </c>
       <c r="K2" t="n">
         <v>44</v>
       </c>
       <c r="L2" t="n">
-        <v>2503</v>
+        <v>2551</v>
       </c>
       <c r="M2" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N2" t="n">
-        <v>1649</v>
+        <v>1704</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>144</v>
+      </c>
+      <c r="S2" t="n">
+        <v>995</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1589</v>
+      </c>
+      <c r="U2" t="n">
+        <v>135</v>
+      </c>
+      <c r="V2" t="n">
+        <v>14435</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14546</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15</v>
       </c>
-      <c r="R2" t="n">
-        <v>115</v>
-      </c>
-      <c r="S2" t="n">
-        <v>996</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1623</v>
-      </c>
-      <c r="U2" t="n">
-        <v>145</v>
-      </c>
-      <c r="V2" t="n">
-        <v>14400</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14532</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>21</v>
-      </c>
       <c r="Z2" t="n">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="AA2" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
